--- a/INTLINE/data/193/ABS/5368013a.xlsx
+++ b/INTLINE/data/193/ABS/5368013a.xlsx
@@ -12,242 +12,242 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A1828644C">Data1!$B$1:$B$10,Data1!$B$11:$B$419</definedName>
-    <definedName name="A1828644C_Data">Data1!$B$11:$B$419</definedName>
-    <definedName name="A1828644C_Latest">Data1!$B$419</definedName>
-    <definedName name="A1828645F">Data1!$C$1:$C$10,Data1!$C$11:$C$419</definedName>
-    <definedName name="A1828645F_Data">Data1!$C$11:$C$419</definedName>
-    <definedName name="A1828645F_Latest">Data1!$C$419</definedName>
-    <definedName name="A1828646J">Data1!$D$1:$D$10,Data1!$D$11:$D$419</definedName>
-    <definedName name="A1828646J_Data">Data1!$D$11:$D$419</definedName>
-    <definedName name="A1828646J_Latest">Data1!$D$419</definedName>
-    <definedName name="A1828647K">Data1!$E$1:$E$10,Data1!$E$11:$E$419</definedName>
-    <definedName name="A1828647K_Data">Data1!$E$11:$E$419</definedName>
-    <definedName name="A1828647K_Latest">Data1!$E$419</definedName>
-    <definedName name="A1828648L">Data1!$F$1:$F$10,Data1!$F$11:$F$419</definedName>
-    <definedName name="A1828648L_Data">Data1!$F$11:$F$419</definedName>
-    <definedName name="A1828648L_Latest">Data1!$F$419</definedName>
-    <definedName name="A1828649R">Data1!$G$1:$G$10,Data1!$G$11:$G$419</definedName>
-    <definedName name="A1828649R_Data">Data1!$G$11:$G$419</definedName>
-    <definedName name="A1828649R_Latest">Data1!$G$419</definedName>
-    <definedName name="A1828650X">Data1!$H$1:$H$10,Data1!$H$11:$H$419</definedName>
-    <definedName name="A1828650X_Data">Data1!$H$11:$H$419</definedName>
-    <definedName name="A1828650X_Latest">Data1!$H$419</definedName>
-    <definedName name="A1828651A">Data1!$I$1:$I$10,Data1!$I$11:$I$419</definedName>
-    <definedName name="A1828651A_Data">Data1!$I$11:$I$419</definedName>
-    <definedName name="A1828651A_Latest">Data1!$I$419</definedName>
-    <definedName name="A1828652C">Data1!$J$1:$J$10,Data1!$J$11:$J$419</definedName>
-    <definedName name="A1828652C_Data">Data1!$J$11:$J$419</definedName>
-    <definedName name="A1828652C_Latest">Data1!$J$419</definedName>
-    <definedName name="A1828653F">Data1!$K$1:$K$10,Data1!$K$11:$K$419</definedName>
-    <definedName name="A1828653F_Data">Data1!$K$11:$K$419</definedName>
-    <definedName name="A1828653F_Latest">Data1!$K$419</definedName>
-    <definedName name="A1828654J">Data1!$L$1:$L$10,Data1!$L$11:$L$419</definedName>
-    <definedName name="A1828654J_Data">Data1!$L$11:$L$419</definedName>
-    <definedName name="A1828654J_Latest">Data1!$L$419</definedName>
-    <definedName name="A1828655K">Data1!$M$1:$M$10,Data1!$M$11:$M$419</definedName>
-    <definedName name="A1828655K_Data">Data1!$M$11:$M$419</definedName>
-    <definedName name="A1828655K_Latest">Data1!$M$419</definedName>
-    <definedName name="A1828656L">Data1!$N$1:$N$10,Data1!$N$11:$N$419</definedName>
-    <definedName name="A1828656L_Data">Data1!$N$11:$N$419</definedName>
-    <definedName name="A1828656L_Latest">Data1!$N$419</definedName>
-    <definedName name="A1828657R">Data1!$O$1:$O$10,Data1!$O$11:$O$419</definedName>
-    <definedName name="A1828657R_Data">Data1!$O$11:$O$419</definedName>
-    <definedName name="A1828657R_Latest">Data1!$O$419</definedName>
-    <definedName name="A1828658T">Data1!$P$1:$P$10,Data1!$P$11:$P$419</definedName>
-    <definedName name="A1828658T_Data">Data1!$P$11:$P$419</definedName>
-    <definedName name="A1828658T_Latest">Data1!$P$419</definedName>
-    <definedName name="A1828659V">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$419</definedName>
-    <definedName name="A1828659V_Data">Data1!$Q$11:$Q$419</definedName>
-    <definedName name="A1828659V_Latest">Data1!$Q$419</definedName>
-    <definedName name="A1828660C">Data1!$R$1:$R$10,Data1!$R$11:$R$419</definedName>
-    <definedName name="A1828660C_Data">Data1!$R$11:$R$419</definedName>
-    <definedName name="A1828660C_Latest">Data1!$R$419</definedName>
-    <definedName name="A1828661F">Data1!$S$1:$S$10,Data1!$S$11:$S$419</definedName>
-    <definedName name="A1828661F_Data">Data1!$S$11:$S$419</definedName>
-    <definedName name="A1828661F_Latest">Data1!$S$419</definedName>
-    <definedName name="A1828662J">Data1!$T$1:$T$10,Data1!$T$11:$T$419</definedName>
-    <definedName name="A1828662J_Data">Data1!$T$11:$T$419</definedName>
-    <definedName name="A1828662J_Latest">Data1!$T$419</definedName>
-    <definedName name="A1828663K">Data1!$U$1:$U$10,Data1!$U$11:$U$419</definedName>
-    <definedName name="A1828663K_Data">Data1!$U$11:$U$419</definedName>
-    <definedName name="A1828663K_Latest">Data1!$U$419</definedName>
-    <definedName name="A1828664L">Data1!$V$1:$V$10,Data1!$V$11:$V$419</definedName>
-    <definedName name="A1828664L_Data">Data1!$V$11:$V$419</definedName>
-    <definedName name="A1828664L_Latest">Data1!$V$419</definedName>
-    <definedName name="A1828665R">Data1!$W$1:$W$10,Data1!$W$11:$W$419</definedName>
-    <definedName name="A1828665R_Data">Data1!$W$11:$W$419</definedName>
-    <definedName name="A1828665R_Latest">Data1!$W$419</definedName>
-    <definedName name="A1828666T">Data1!$X$1:$X$10,Data1!$X$11:$X$419</definedName>
-    <definedName name="A1828666T_Data">Data1!$X$11:$X$419</definedName>
-    <definedName name="A1828666T_Latest">Data1!$X$419</definedName>
-    <definedName name="A1828667V">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$419</definedName>
-    <definedName name="A1828667V_Data">Data1!$Y$11:$Y$419</definedName>
-    <definedName name="A1828667V_Latest">Data1!$Y$419</definedName>
-    <definedName name="A1828668W">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$419</definedName>
-    <definedName name="A1828668W_Data">Data1!$Z$11:$Z$419</definedName>
-    <definedName name="A1828668W_Latest">Data1!$Z$419</definedName>
-    <definedName name="A1828669X">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$419</definedName>
-    <definedName name="A1828669X_Data">Data1!$AA$11:$AA$419</definedName>
-    <definedName name="A1828669X_Latest">Data1!$AA$419</definedName>
-    <definedName name="A1828670J">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$419</definedName>
-    <definedName name="A1828670J_Data">Data1!$AB$11:$AB$419</definedName>
-    <definedName name="A1828670J_Latest">Data1!$AB$419</definedName>
-    <definedName name="A1828671K">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$419</definedName>
-    <definedName name="A1828671K_Data">Data1!$AC$11:$AC$419</definedName>
-    <definedName name="A1828671K_Latest">Data1!$AC$419</definedName>
-    <definedName name="A1828672L">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$419</definedName>
-    <definedName name="A1828672L_Data">Data1!$AD$11:$AD$419</definedName>
-    <definedName name="A1828672L_Latest">Data1!$AD$419</definedName>
-    <definedName name="A1828673R">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$419</definedName>
-    <definedName name="A1828673R_Data">Data1!$AE$11:$AE$419</definedName>
-    <definedName name="A1828673R_Latest">Data1!$AE$419</definedName>
-    <definedName name="A1828674T">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$419</definedName>
-    <definedName name="A1828674T_Data">Data1!$AF$11:$AF$419</definedName>
-    <definedName name="A1828674T_Latest">Data1!$AF$419</definedName>
-    <definedName name="A1828675V">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$419</definedName>
-    <definedName name="A1828675V_Data">Data1!$AG$11:$AG$419</definedName>
-    <definedName name="A1828675V_Latest">Data1!$AG$419</definedName>
-    <definedName name="A1828676W">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$419</definedName>
-    <definedName name="A1828676W_Data">Data1!$AH$11:$AH$419</definedName>
-    <definedName name="A1828676W_Latest">Data1!$AH$419</definedName>
-    <definedName name="A1828677X">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$419</definedName>
-    <definedName name="A1828677X_Data">Data1!$AI$11:$AI$419</definedName>
-    <definedName name="A1828677X_Latest">Data1!$AI$419</definedName>
-    <definedName name="A1828678A">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$419</definedName>
-    <definedName name="A1828678A_Data">Data1!$AJ$11:$AJ$419</definedName>
-    <definedName name="A1828678A_Latest">Data1!$AJ$419</definedName>
-    <definedName name="A1828679C">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$419</definedName>
-    <definedName name="A1828679C_Data">Data1!$AK$11:$AK$419</definedName>
-    <definedName name="A1828679C_Latest">Data1!$AK$419</definedName>
-    <definedName name="A1828680L">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$419</definedName>
-    <definedName name="A1828680L_Data">Data1!$AL$11:$AL$419</definedName>
-    <definedName name="A1828680L_Latest">Data1!$AL$419</definedName>
-    <definedName name="A1828681R">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$419</definedName>
-    <definedName name="A1828681R_Data">Data1!$AM$11:$AM$419</definedName>
-    <definedName name="A1828681R_Latest">Data1!$AM$419</definedName>
-    <definedName name="A1828682T">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$419</definedName>
-    <definedName name="A1828682T_Data">Data1!$AN$11:$AN$419</definedName>
-    <definedName name="A1828682T_Latest">Data1!$AN$419</definedName>
-    <definedName name="A1828683V">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$419</definedName>
-    <definedName name="A1828683V_Data">Data1!$AO$11:$AO$419</definedName>
-    <definedName name="A1828683V_Latest">Data1!$AO$419</definedName>
-    <definedName name="A1828684W">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$419</definedName>
-    <definedName name="A1828684W_Data">Data1!$AP$11:$AP$419</definedName>
-    <definedName name="A1828684W_Latest">Data1!$AP$419</definedName>
-    <definedName name="A1828685X">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$419</definedName>
-    <definedName name="A1828685X_Data">Data1!$AQ$11:$AQ$419</definedName>
-    <definedName name="A1828685X_Latest">Data1!$AQ$419</definedName>
-    <definedName name="A1828686A">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$419</definedName>
-    <definedName name="A1828686A_Data">Data1!$AR$11:$AR$419</definedName>
-    <definedName name="A1828686A_Latest">Data1!$AR$419</definedName>
-    <definedName name="A1828687C">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$419</definedName>
-    <definedName name="A1828687C_Data">Data1!$AS$11:$AS$419</definedName>
-    <definedName name="A1828687C_Latest">Data1!$AS$419</definedName>
-    <definedName name="A1828688F">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$419</definedName>
-    <definedName name="A1828688F_Data">Data1!$AT$11:$AT$419</definedName>
-    <definedName name="A1828688F_Latest">Data1!$AT$419</definedName>
-    <definedName name="A1828689J">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$419</definedName>
-    <definedName name="A1828689J_Data">Data1!$AU$11:$AU$419</definedName>
-    <definedName name="A1828689J_Latest">Data1!$AU$419</definedName>
-    <definedName name="A1828690T">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$419</definedName>
-    <definedName name="A1828690T_Data">Data1!$AV$11:$AV$419</definedName>
-    <definedName name="A1828690T_Latest">Data1!$AV$419</definedName>
-    <definedName name="A1828691V">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$419</definedName>
-    <definedName name="A1828691V_Data">Data1!$AW$11:$AW$419</definedName>
-    <definedName name="A1828691V_Latest">Data1!$AW$419</definedName>
-    <definedName name="A1828692W">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$419</definedName>
-    <definedName name="A1828692W_Data">Data1!$AX$11:$AX$419</definedName>
-    <definedName name="A1828692W_Latest">Data1!$AX$419</definedName>
-    <definedName name="A1828693X">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$419</definedName>
-    <definedName name="A1828693X_Data">Data1!$AY$11:$AY$419</definedName>
-    <definedName name="A1828693X_Latest">Data1!$AY$419</definedName>
-    <definedName name="A1828694A">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$419</definedName>
-    <definedName name="A1828694A_Data">Data1!$AZ$11:$AZ$419</definedName>
-    <definedName name="A1828694A_Latest">Data1!$AZ$419</definedName>
-    <definedName name="A1828695C">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$419</definedName>
-    <definedName name="A1828695C_Data">Data1!$BA$11:$BA$419</definedName>
-    <definedName name="A1828695C_Latest">Data1!$BA$419</definedName>
-    <definedName name="A1828696F">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$419</definedName>
-    <definedName name="A1828696F_Data">Data1!$BB$11:$BB$419</definedName>
-    <definedName name="A1828696F_Latest">Data1!$BB$419</definedName>
-    <definedName name="A1828697J">Data1!$BC$1:$BC$10,Data1!$BC$11:$BC$419</definedName>
-    <definedName name="A1828697J_Data">Data1!$BC$11:$BC$419</definedName>
-    <definedName name="A1828697J_Latest">Data1!$BC$419</definedName>
-    <definedName name="A1828698K">Data1!$BD$1:$BD$10,Data1!$BD$11:$BD$419</definedName>
-    <definedName name="A1828698K_Data">Data1!$BD$11:$BD$419</definedName>
-    <definedName name="A1828698K_Latest">Data1!$BD$419</definedName>
-    <definedName name="A1828699L">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$419</definedName>
-    <definedName name="A1828699L_Data">Data1!$BE$11:$BE$419</definedName>
-    <definedName name="A1828699L_Latest">Data1!$BE$419</definedName>
-    <definedName name="A1828700K">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$419</definedName>
-    <definedName name="A1828700K_Data">Data1!$BF$11:$BF$419</definedName>
-    <definedName name="A1828700K_Latest">Data1!$BF$419</definedName>
-    <definedName name="A1828701L">Data1!$BG$1:$BG$10,Data1!$BG$11:$BG$419</definedName>
-    <definedName name="A1828701L_Data">Data1!$BG$11:$BG$419</definedName>
-    <definedName name="A1828701L_Latest">Data1!$BG$419</definedName>
-    <definedName name="A1828702R">Data1!$BH$1:$BH$10,Data1!$BH$11:$BH$419</definedName>
-    <definedName name="A1828702R_Data">Data1!$BH$11:$BH$419</definedName>
-    <definedName name="A1828702R_Latest">Data1!$BH$419</definedName>
-    <definedName name="A1828703T">Data1!$BI$1:$BI$10,Data1!$BI$11:$BI$419</definedName>
-    <definedName name="A1828703T_Data">Data1!$BI$11:$BI$419</definedName>
-    <definedName name="A1828703T_Latest">Data1!$BI$419</definedName>
-    <definedName name="A1828704V">Data1!$BJ$1:$BJ$10,Data1!$BJ$11:$BJ$419</definedName>
-    <definedName name="A1828704V_Data">Data1!$BJ$11:$BJ$419</definedName>
-    <definedName name="A1828704V_Latest">Data1!$BJ$419</definedName>
-    <definedName name="A1828705W">Data1!$BK$1:$BK$10,Data1!$BK$11:$BK$419</definedName>
-    <definedName name="A1828705W_Data">Data1!$BK$11:$BK$419</definedName>
-    <definedName name="A1828705W_Latest">Data1!$BK$419</definedName>
-    <definedName name="A1828706X">Data1!$BL$1:$BL$10,Data1!$BL$11:$BL$419</definedName>
-    <definedName name="A1828706X_Data">Data1!$BL$11:$BL$419</definedName>
-    <definedName name="A1828706X_Latest">Data1!$BL$419</definedName>
-    <definedName name="A1828707A">Data1!$BM$1:$BM$10,Data1!$BM$11:$BM$419</definedName>
-    <definedName name="A1828707A_Data">Data1!$BM$11:$BM$419</definedName>
-    <definedName name="A1828707A_Latest">Data1!$BM$419</definedName>
-    <definedName name="A1828708C">Data1!$BN$1:$BN$10,Data1!$BN$11:$BN$419</definedName>
-    <definedName name="A1828708C_Data">Data1!$BN$11:$BN$419</definedName>
-    <definedName name="A1828708C_Latest">Data1!$BN$419</definedName>
-    <definedName name="A1828709F">Data1!$BO$1:$BO$10,Data1!$BO$11:$BO$419</definedName>
-    <definedName name="A1828709F_Data">Data1!$BO$11:$BO$419</definedName>
-    <definedName name="A1828709F_Latest">Data1!$BO$419</definedName>
-    <definedName name="A1828710R">Data1!$BP$1:$BP$10,Data1!$BP$11:$BP$419</definedName>
-    <definedName name="A1828710R_Data">Data1!$BP$11:$BP$419</definedName>
-    <definedName name="A1828710R_Latest">Data1!$BP$419</definedName>
-    <definedName name="A1828711T">Data1!$BQ$1:$BQ$10,Data1!$BQ$11:$BQ$419</definedName>
-    <definedName name="A1828711T_Data">Data1!$BQ$11:$BQ$419</definedName>
-    <definedName name="A1828711T_Latest">Data1!$BQ$419</definedName>
-    <definedName name="A1828712V">Data1!$BR$1:$BR$10,Data1!$BR$11:$BR$419</definedName>
-    <definedName name="A1828712V_Data">Data1!$BR$11:$BR$419</definedName>
-    <definedName name="A1828712V_Latest">Data1!$BR$419</definedName>
-    <definedName name="A1828713W">Data1!$BS$1:$BS$10,Data1!$BS$11:$BS$419</definedName>
-    <definedName name="A1828713W_Data">Data1!$BS$11:$BS$419</definedName>
-    <definedName name="A1828713W_Latest">Data1!$BS$419</definedName>
-    <definedName name="A1828714X">Data1!$BT$1:$BT$10,Data1!$BT$11:$BT$419</definedName>
-    <definedName name="A1828714X_Data">Data1!$BT$11:$BT$419</definedName>
-    <definedName name="A1828714X_Latest">Data1!$BT$419</definedName>
-    <definedName name="A1828715A">Data1!$BU$1:$BU$10,Data1!$BU$11:$BU$419</definedName>
-    <definedName name="A1828715A_Data">Data1!$BU$11:$BU$419</definedName>
-    <definedName name="A1828715A_Latest">Data1!$BU$419</definedName>
-    <definedName name="A1828716C">Data1!$BV$1:$BV$10,Data1!$BV$11:$BV$419</definedName>
-    <definedName name="A1828716C_Data">Data1!$BV$11:$BV$419</definedName>
-    <definedName name="A1828716C_Latest">Data1!$BV$419</definedName>
-    <definedName name="A1828717F">Data1!$BW$1:$BW$10,Data1!$BW$11:$BW$419</definedName>
-    <definedName name="A1828717F_Data">Data1!$BW$11:$BW$419</definedName>
-    <definedName name="A1828717F_Latest">Data1!$BW$419</definedName>
-    <definedName name="A1828718J">Data1!$BX$1:$BX$10,Data1!$BX$11:$BX$419</definedName>
-    <definedName name="A1828718J_Data">Data1!$BX$11:$BX$419</definedName>
-    <definedName name="A1828718J_Latest">Data1!$BX$419</definedName>
-    <definedName name="A1828719K">Data1!$BY$1:$BY$10,Data1!$BY$11:$BY$419</definedName>
-    <definedName name="A1828719K_Data">Data1!$BY$11:$BY$419</definedName>
-    <definedName name="A1828719K_Latest">Data1!$BY$419</definedName>
-    <definedName name="A1828720V">Data1!$BZ$1:$BZ$10,Data1!$BZ$11:$BZ$419</definedName>
-    <definedName name="A1828720V_Data">Data1!$BZ$11:$BZ$419</definedName>
-    <definedName name="A1828720V_Latest">Data1!$BZ$419</definedName>
-    <definedName name="A1828721W">Data1!$CA$1:$CA$10,Data1!$CA$11:$CA$419</definedName>
-    <definedName name="A1828721W_Data">Data1!$CA$11:$CA$419</definedName>
-    <definedName name="A1828721W_Latest">Data1!$CA$419</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$419</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$419</definedName>
+    <definedName name="A1828644C">Data1!$B$1:$B$10,Data1!$B$11:$B$422</definedName>
+    <definedName name="A1828644C_Data">Data1!$B$11:$B$422</definedName>
+    <definedName name="A1828644C_Latest">Data1!$B$422</definedName>
+    <definedName name="A1828645F">Data1!$C$1:$C$10,Data1!$C$11:$C$422</definedName>
+    <definedName name="A1828645F_Data">Data1!$C$11:$C$422</definedName>
+    <definedName name="A1828645F_Latest">Data1!$C$422</definedName>
+    <definedName name="A1828646J">Data1!$D$1:$D$10,Data1!$D$11:$D$422</definedName>
+    <definedName name="A1828646J_Data">Data1!$D$11:$D$422</definedName>
+    <definedName name="A1828646J_Latest">Data1!$D$422</definedName>
+    <definedName name="A1828647K">Data1!$E$1:$E$10,Data1!$E$11:$E$422</definedName>
+    <definedName name="A1828647K_Data">Data1!$E$11:$E$422</definedName>
+    <definedName name="A1828647K_Latest">Data1!$E$422</definedName>
+    <definedName name="A1828648L">Data1!$F$1:$F$10,Data1!$F$11:$F$422</definedName>
+    <definedName name="A1828648L_Data">Data1!$F$11:$F$422</definedName>
+    <definedName name="A1828648L_Latest">Data1!$F$422</definedName>
+    <definedName name="A1828649R">Data1!$G$1:$G$10,Data1!$G$11:$G$422</definedName>
+    <definedName name="A1828649R_Data">Data1!$G$11:$G$422</definedName>
+    <definedName name="A1828649R_Latest">Data1!$G$422</definedName>
+    <definedName name="A1828650X">Data1!$H$1:$H$10,Data1!$H$11:$H$422</definedName>
+    <definedName name="A1828650X_Data">Data1!$H$11:$H$422</definedName>
+    <definedName name="A1828650X_Latest">Data1!$H$422</definedName>
+    <definedName name="A1828651A">Data1!$I$1:$I$10,Data1!$I$11:$I$422</definedName>
+    <definedName name="A1828651A_Data">Data1!$I$11:$I$422</definedName>
+    <definedName name="A1828651A_Latest">Data1!$I$422</definedName>
+    <definedName name="A1828652C">Data1!$J$1:$J$10,Data1!$J$11:$J$422</definedName>
+    <definedName name="A1828652C_Data">Data1!$J$11:$J$422</definedName>
+    <definedName name="A1828652C_Latest">Data1!$J$422</definedName>
+    <definedName name="A1828653F">Data1!$K$1:$K$10,Data1!$K$11:$K$422</definedName>
+    <definedName name="A1828653F_Data">Data1!$K$11:$K$422</definedName>
+    <definedName name="A1828653F_Latest">Data1!$K$422</definedName>
+    <definedName name="A1828654J">Data1!$L$1:$L$10,Data1!$L$11:$L$422</definedName>
+    <definedName name="A1828654J_Data">Data1!$L$11:$L$422</definedName>
+    <definedName name="A1828654J_Latest">Data1!$L$422</definedName>
+    <definedName name="A1828655K">Data1!$M$1:$M$10,Data1!$M$11:$M$422</definedName>
+    <definedName name="A1828655K_Data">Data1!$M$11:$M$422</definedName>
+    <definedName name="A1828655K_Latest">Data1!$M$422</definedName>
+    <definedName name="A1828656L">Data1!$N$1:$N$10,Data1!$N$11:$N$422</definedName>
+    <definedName name="A1828656L_Data">Data1!$N$11:$N$422</definedName>
+    <definedName name="A1828656L_Latest">Data1!$N$422</definedName>
+    <definedName name="A1828657R">Data1!$O$1:$O$10,Data1!$O$11:$O$422</definedName>
+    <definedName name="A1828657R_Data">Data1!$O$11:$O$422</definedName>
+    <definedName name="A1828657R_Latest">Data1!$O$422</definedName>
+    <definedName name="A1828658T">Data1!$P$1:$P$10,Data1!$P$11:$P$422</definedName>
+    <definedName name="A1828658T_Data">Data1!$P$11:$P$422</definedName>
+    <definedName name="A1828658T_Latest">Data1!$P$422</definedName>
+    <definedName name="A1828659V">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$422</definedName>
+    <definedName name="A1828659V_Data">Data1!$Q$11:$Q$422</definedName>
+    <definedName name="A1828659V_Latest">Data1!$Q$422</definedName>
+    <definedName name="A1828660C">Data1!$R$1:$R$10,Data1!$R$11:$R$422</definedName>
+    <definedName name="A1828660C_Data">Data1!$R$11:$R$422</definedName>
+    <definedName name="A1828660C_Latest">Data1!$R$422</definedName>
+    <definedName name="A1828661F">Data1!$S$1:$S$10,Data1!$S$11:$S$422</definedName>
+    <definedName name="A1828661F_Data">Data1!$S$11:$S$422</definedName>
+    <definedName name="A1828661F_Latest">Data1!$S$422</definedName>
+    <definedName name="A1828662J">Data1!$T$1:$T$10,Data1!$T$11:$T$422</definedName>
+    <definedName name="A1828662J_Data">Data1!$T$11:$T$422</definedName>
+    <definedName name="A1828662J_Latest">Data1!$T$422</definedName>
+    <definedName name="A1828663K">Data1!$U$1:$U$10,Data1!$U$11:$U$422</definedName>
+    <definedName name="A1828663K_Data">Data1!$U$11:$U$422</definedName>
+    <definedName name="A1828663K_Latest">Data1!$U$422</definedName>
+    <definedName name="A1828664L">Data1!$V$1:$V$10,Data1!$V$11:$V$422</definedName>
+    <definedName name="A1828664L_Data">Data1!$V$11:$V$422</definedName>
+    <definedName name="A1828664L_Latest">Data1!$V$422</definedName>
+    <definedName name="A1828665R">Data1!$W$1:$W$10,Data1!$W$11:$W$422</definedName>
+    <definedName name="A1828665R_Data">Data1!$W$11:$W$422</definedName>
+    <definedName name="A1828665R_Latest">Data1!$W$422</definedName>
+    <definedName name="A1828666T">Data1!$X$1:$X$10,Data1!$X$11:$X$422</definedName>
+    <definedName name="A1828666T_Data">Data1!$X$11:$X$422</definedName>
+    <definedName name="A1828666T_Latest">Data1!$X$422</definedName>
+    <definedName name="A1828667V">Data1!$Y$1:$Y$10,Data1!$Y$11:$Y$422</definedName>
+    <definedName name="A1828667V_Data">Data1!$Y$11:$Y$422</definedName>
+    <definedName name="A1828667V_Latest">Data1!$Y$422</definedName>
+    <definedName name="A1828668W">Data1!$Z$1:$Z$10,Data1!$Z$11:$Z$422</definedName>
+    <definedName name="A1828668W_Data">Data1!$Z$11:$Z$422</definedName>
+    <definedName name="A1828668W_Latest">Data1!$Z$422</definedName>
+    <definedName name="A1828669X">Data1!$AA$1:$AA$10,Data1!$AA$11:$AA$422</definedName>
+    <definedName name="A1828669X_Data">Data1!$AA$11:$AA$422</definedName>
+    <definedName name="A1828669X_Latest">Data1!$AA$422</definedName>
+    <definedName name="A1828670J">Data1!$AB$1:$AB$10,Data1!$AB$11:$AB$422</definedName>
+    <definedName name="A1828670J_Data">Data1!$AB$11:$AB$422</definedName>
+    <definedName name="A1828670J_Latest">Data1!$AB$422</definedName>
+    <definedName name="A1828671K">Data1!$AC$1:$AC$10,Data1!$AC$11:$AC$422</definedName>
+    <definedName name="A1828671K_Data">Data1!$AC$11:$AC$422</definedName>
+    <definedName name="A1828671K_Latest">Data1!$AC$422</definedName>
+    <definedName name="A1828672L">Data1!$AD$1:$AD$10,Data1!$AD$11:$AD$422</definedName>
+    <definedName name="A1828672L_Data">Data1!$AD$11:$AD$422</definedName>
+    <definedName name="A1828672L_Latest">Data1!$AD$422</definedName>
+    <definedName name="A1828673R">Data1!$AE$1:$AE$10,Data1!$AE$11:$AE$422</definedName>
+    <definedName name="A1828673R_Data">Data1!$AE$11:$AE$422</definedName>
+    <definedName name="A1828673R_Latest">Data1!$AE$422</definedName>
+    <definedName name="A1828674T">Data1!$AF$1:$AF$10,Data1!$AF$11:$AF$422</definedName>
+    <definedName name="A1828674T_Data">Data1!$AF$11:$AF$422</definedName>
+    <definedName name="A1828674T_Latest">Data1!$AF$422</definedName>
+    <definedName name="A1828675V">Data1!$AG$1:$AG$10,Data1!$AG$11:$AG$422</definedName>
+    <definedName name="A1828675V_Data">Data1!$AG$11:$AG$422</definedName>
+    <definedName name="A1828675V_Latest">Data1!$AG$422</definedName>
+    <definedName name="A1828676W">Data1!$AH$1:$AH$10,Data1!$AH$11:$AH$422</definedName>
+    <definedName name="A1828676W_Data">Data1!$AH$11:$AH$422</definedName>
+    <definedName name="A1828676W_Latest">Data1!$AH$422</definedName>
+    <definedName name="A1828677X">Data1!$AI$1:$AI$10,Data1!$AI$11:$AI$422</definedName>
+    <definedName name="A1828677X_Data">Data1!$AI$11:$AI$422</definedName>
+    <definedName name="A1828677X_Latest">Data1!$AI$422</definedName>
+    <definedName name="A1828678A">Data1!$AJ$1:$AJ$10,Data1!$AJ$11:$AJ$422</definedName>
+    <definedName name="A1828678A_Data">Data1!$AJ$11:$AJ$422</definedName>
+    <definedName name="A1828678A_Latest">Data1!$AJ$422</definedName>
+    <definedName name="A1828679C">Data1!$AK$1:$AK$10,Data1!$AK$11:$AK$422</definedName>
+    <definedName name="A1828679C_Data">Data1!$AK$11:$AK$422</definedName>
+    <definedName name="A1828679C_Latest">Data1!$AK$422</definedName>
+    <definedName name="A1828680L">Data1!$AL$1:$AL$10,Data1!$AL$11:$AL$422</definedName>
+    <definedName name="A1828680L_Data">Data1!$AL$11:$AL$422</definedName>
+    <definedName name="A1828680L_Latest">Data1!$AL$422</definedName>
+    <definedName name="A1828681R">Data1!$AM$1:$AM$10,Data1!$AM$11:$AM$422</definedName>
+    <definedName name="A1828681R_Data">Data1!$AM$11:$AM$422</definedName>
+    <definedName name="A1828681R_Latest">Data1!$AM$422</definedName>
+    <definedName name="A1828682T">Data1!$AN$1:$AN$10,Data1!$AN$11:$AN$422</definedName>
+    <definedName name="A1828682T_Data">Data1!$AN$11:$AN$422</definedName>
+    <definedName name="A1828682T_Latest">Data1!$AN$422</definedName>
+    <definedName name="A1828683V">Data1!$AO$1:$AO$10,Data1!$AO$11:$AO$422</definedName>
+    <definedName name="A1828683V_Data">Data1!$AO$11:$AO$422</definedName>
+    <definedName name="A1828683V_Latest">Data1!$AO$422</definedName>
+    <definedName name="A1828684W">Data1!$AP$1:$AP$10,Data1!$AP$11:$AP$422</definedName>
+    <definedName name="A1828684W_Data">Data1!$AP$11:$AP$422</definedName>
+    <definedName name="A1828684W_Latest">Data1!$AP$422</definedName>
+    <definedName name="A1828685X">Data1!$AQ$1:$AQ$10,Data1!$AQ$11:$AQ$422</definedName>
+    <definedName name="A1828685X_Data">Data1!$AQ$11:$AQ$422</definedName>
+    <definedName name="A1828685X_Latest">Data1!$AQ$422</definedName>
+    <definedName name="A1828686A">Data1!$AR$1:$AR$10,Data1!$AR$11:$AR$422</definedName>
+    <definedName name="A1828686A_Data">Data1!$AR$11:$AR$422</definedName>
+    <definedName name="A1828686A_Latest">Data1!$AR$422</definedName>
+    <definedName name="A1828687C">Data1!$AS$1:$AS$10,Data1!$AS$11:$AS$422</definedName>
+    <definedName name="A1828687C_Data">Data1!$AS$11:$AS$422</definedName>
+    <definedName name="A1828687C_Latest">Data1!$AS$422</definedName>
+    <definedName name="A1828688F">Data1!$AT$1:$AT$10,Data1!$AT$11:$AT$422</definedName>
+    <definedName name="A1828688F_Data">Data1!$AT$11:$AT$422</definedName>
+    <definedName name="A1828688F_Latest">Data1!$AT$422</definedName>
+    <definedName name="A1828689J">Data1!$AU$1:$AU$10,Data1!$AU$11:$AU$422</definedName>
+    <definedName name="A1828689J_Data">Data1!$AU$11:$AU$422</definedName>
+    <definedName name="A1828689J_Latest">Data1!$AU$422</definedName>
+    <definedName name="A1828690T">Data1!$AV$1:$AV$10,Data1!$AV$11:$AV$422</definedName>
+    <definedName name="A1828690T_Data">Data1!$AV$11:$AV$422</definedName>
+    <definedName name="A1828690T_Latest">Data1!$AV$422</definedName>
+    <definedName name="A1828691V">Data1!$AW$1:$AW$10,Data1!$AW$11:$AW$422</definedName>
+    <definedName name="A1828691V_Data">Data1!$AW$11:$AW$422</definedName>
+    <definedName name="A1828691V_Latest">Data1!$AW$422</definedName>
+    <definedName name="A1828692W">Data1!$AX$1:$AX$10,Data1!$AX$11:$AX$422</definedName>
+    <definedName name="A1828692W_Data">Data1!$AX$11:$AX$422</definedName>
+    <definedName name="A1828692W_Latest">Data1!$AX$422</definedName>
+    <definedName name="A1828693X">Data1!$AY$1:$AY$10,Data1!$AY$11:$AY$422</definedName>
+    <definedName name="A1828693X_Data">Data1!$AY$11:$AY$422</definedName>
+    <definedName name="A1828693X_Latest">Data1!$AY$422</definedName>
+    <definedName name="A1828694A">Data1!$AZ$1:$AZ$10,Data1!$AZ$11:$AZ$422</definedName>
+    <definedName name="A1828694A_Data">Data1!$AZ$11:$AZ$422</definedName>
+    <definedName name="A1828694A_Latest">Data1!$AZ$422</definedName>
+    <definedName name="A1828695C">Data1!$BA$1:$BA$10,Data1!$BA$11:$BA$422</definedName>
+    <definedName name="A1828695C_Data">Data1!$BA$11:$BA$422</definedName>
+    <definedName name="A1828695C_Latest">Data1!$BA$422</definedName>
+    <definedName name="A1828696F">Data1!$BB$1:$BB$10,Data1!$BB$11:$BB$422</definedName>
+    <definedName name="A1828696F_Data">Data1!$BB$11:$BB$422</definedName>
+    <definedName name="A1828696F_Latest">Data1!$BB$422</definedName>
+    <definedName name="A1828697J">Data1!$BC$1:$BC$10,Data1!$BC$11:$BC$422</definedName>
+    <definedName name="A1828697J_Data">Data1!$BC$11:$BC$422</definedName>
+    <definedName name="A1828697J_Latest">Data1!$BC$422</definedName>
+    <definedName name="A1828698K">Data1!$BD$1:$BD$10,Data1!$BD$11:$BD$422</definedName>
+    <definedName name="A1828698K_Data">Data1!$BD$11:$BD$422</definedName>
+    <definedName name="A1828698K_Latest">Data1!$BD$422</definedName>
+    <definedName name="A1828699L">Data1!$BE$1:$BE$10,Data1!$BE$11:$BE$422</definedName>
+    <definedName name="A1828699L_Data">Data1!$BE$11:$BE$422</definedName>
+    <definedName name="A1828699L_Latest">Data1!$BE$422</definedName>
+    <definedName name="A1828700K">Data1!$BF$1:$BF$10,Data1!$BF$11:$BF$422</definedName>
+    <definedName name="A1828700K_Data">Data1!$BF$11:$BF$422</definedName>
+    <definedName name="A1828700K_Latest">Data1!$BF$422</definedName>
+    <definedName name="A1828701L">Data1!$BG$1:$BG$10,Data1!$BG$11:$BG$422</definedName>
+    <definedName name="A1828701L_Data">Data1!$BG$11:$BG$422</definedName>
+    <definedName name="A1828701L_Latest">Data1!$BG$422</definedName>
+    <definedName name="A1828702R">Data1!$BH$1:$BH$10,Data1!$BH$11:$BH$422</definedName>
+    <definedName name="A1828702R_Data">Data1!$BH$11:$BH$422</definedName>
+    <definedName name="A1828702R_Latest">Data1!$BH$422</definedName>
+    <definedName name="A1828703T">Data1!$BI$1:$BI$10,Data1!$BI$11:$BI$422</definedName>
+    <definedName name="A1828703T_Data">Data1!$BI$11:$BI$422</definedName>
+    <definedName name="A1828703T_Latest">Data1!$BI$422</definedName>
+    <definedName name="A1828704V">Data1!$BJ$1:$BJ$10,Data1!$BJ$11:$BJ$422</definedName>
+    <definedName name="A1828704V_Data">Data1!$BJ$11:$BJ$422</definedName>
+    <definedName name="A1828704V_Latest">Data1!$BJ$422</definedName>
+    <definedName name="A1828705W">Data1!$BK$1:$BK$10,Data1!$BK$11:$BK$422</definedName>
+    <definedName name="A1828705W_Data">Data1!$BK$11:$BK$422</definedName>
+    <definedName name="A1828705W_Latest">Data1!$BK$422</definedName>
+    <definedName name="A1828706X">Data1!$BL$1:$BL$10,Data1!$BL$11:$BL$422</definedName>
+    <definedName name="A1828706X_Data">Data1!$BL$11:$BL$422</definedName>
+    <definedName name="A1828706X_Latest">Data1!$BL$422</definedName>
+    <definedName name="A1828707A">Data1!$BM$1:$BM$10,Data1!$BM$11:$BM$422</definedName>
+    <definedName name="A1828707A_Data">Data1!$BM$11:$BM$422</definedName>
+    <definedName name="A1828707A_Latest">Data1!$BM$422</definedName>
+    <definedName name="A1828708C">Data1!$BN$1:$BN$10,Data1!$BN$11:$BN$422</definedName>
+    <definedName name="A1828708C_Data">Data1!$BN$11:$BN$422</definedName>
+    <definedName name="A1828708C_Latest">Data1!$BN$422</definedName>
+    <definedName name="A1828709F">Data1!$BO$1:$BO$10,Data1!$BO$11:$BO$422</definedName>
+    <definedName name="A1828709F_Data">Data1!$BO$11:$BO$422</definedName>
+    <definedName name="A1828709F_Latest">Data1!$BO$422</definedName>
+    <definedName name="A1828710R">Data1!$BP$1:$BP$10,Data1!$BP$11:$BP$422</definedName>
+    <definedName name="A1828710R_Data">Data1!$BP$11:$BP$422</definedName>
+    <definedName name="A1828710R_Latest">Data1!$BP$422</definedName>
+    <definedName name="A1828711T">Data1!$BQ$1:$BQ$10,Data1!$BQ$11:$BQ$422</definedName>
+    <definedName name="A1828711T_Data">Data1!$BQ$11:$BQ$422</definedName>
+    <definedName name="A1828711T_Latest">Data1!$BQ$422</definedName>
+    <definedName name="A1828712V">Data1!$BR$1:$BR$10,Data1!$BR$11:$BR$422</definedName>
+    <definedName name="A1828712V_Data">Data1!$BR$11:$BR$422</definedName>
+    <definedName name="A1828712V_Latest">Data1!$BR$422</definedName>
+    <definedName name="A1828713W">Data1!$BS$1:$BS$10,Data1!$BS$11:$BS$422</definedName>
+    <definedName name="A1828713W_Data">Data1!$BS$11:$BS$422</definedName>
+    <definedName name="A1828713W_Latest">Data1!$BS$422</definedName>
+    <definedName name="A1828714X">Data1!$BT$1:$BT$10,Data1!$BT$11:$BT$422</definedName>
+    <definedName name="A1828714X_Data">Data1!$BT$11:$BT$422</definedName>
+    <definedName name="A1828714X_Latest">Data1!$BT$422</definedName>
+    <definedName name="A1828715A">Data1!$BU$1:$BU$10,Data1!$BU$11:$BU$422</definedName>
+    <definedName name="A1828715A_Data">Data1!$BU$11:$BU$422</definedName>
+    <definedName name="A1828715A_Latest">Data1!$BU$422</definedName>
+    <definedName name="A1828716C">Data1!$BV$1:$BV$10,Data1!$BV$11:$BV$422</definedName>
+    <definedName name="A1828716C_Data">Data1!$BV$11:$BV$422</definedName>
+    <definedName name="A1828716C_Latest">Data1!$BV$422</definedName>
+    <definedName name="A1828717F">Data1!$BW$1:$BW$10,Data1!$BW$11:$BW$422</definedName>
+    <definedName name="A1828717F_Data">Data1!$BW$11:$BW$422</definedName>
+    <definedName name="A1828717F_Latest">Data1!$BW$422</definedName>
+    <definedName name="A1828718J">Data1!$BX$1:$BX$10,Data1!$BX$11:$BX$422</definedName>
+    <definedName name="A1828718J_Data">Data1!$BX$11:$BX$422</definedName>
+    <definedName name="A1828718J_Latest">Data1!$BX$422</definedName>
+    <definedName name="A1828719K">Data1!$BY$1:$BY$10,Data1!$BY$11:$BY$422</definedName>
+    <definedName name="A1828719K_Data">Data1!$BY$11:$BY$422</definedName>
+    <definedName name="A1828719K_Latest">Data1!$BY$422</definedName>
+    <definedName name="A1828720V">Data1!$BZ$1:$BZ$10,Data1!$BZ$11:$BZ$422</definedName>
+    <definedName name="A1828720V_Data">Data1!$BZ$11:$BZ$422</definedName>
+    <definedName name="A1828720V_Latest">Data1!$BZ$422</definedName>
+    <definedName name="A1828721W">Data1!$CA$1:$CA$10,Data1!$CA$11:$CA$422</definedName>
+    <definedName name="A1828721W_Data">Data1!$CA$11:$CA$422</definedName>
+    <definedName name="A1828721W_Latest">Data1!$CA$422</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$422</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$422</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1585,10 +1585,10 @@
         <v>32143</v>
       </c>
       <c r="G12" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H12" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>87</v>
@@ -1617,10 +1617,10 @@
         <v>32143</v>
       </c>
       <c r="G13" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H13" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>87</v>
@@ -1649,10 +1649,10 @@
         <v>32143</v>
       </c>
       <c r="G14" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H14" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>87</v>
@@ -1681,10 +1681,10 @@
         <v>32143</v>
       </c>
       <c r="G15" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H15" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>87</v>
@@ -1713,10 +1713,10 @@
         <v>32143</v>
       </c>
       <c r="G16" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H16" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>87</v>
@@ -1745,10 +1745,10 @@
         <v>32143</v>
       </c>
       <c r="G17" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H17" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>87</v>
@@ -1777,10 +1777,10 @@
         <v>32143</v>
       </c>
       <c r="G18" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H18" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>87</v>
@@ -1809,10 +1809,10 @@
         <v>32143</v>
       </c>
       <c r="G19" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H19" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>87</v>
@@ -1841,10 +1841,10 @@
         <v>32143</v>
       </c>
       <c r="G20" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H20" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>87</v>
@@ -1873,10 +1873,10 @@
         <v>32143</v>
       </c>
       <c r="G21" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H21" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>87</v>
@@ -1905,10 +1905,10 @@
         <v>32143</v>
       </c>
       <c r="G22" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H22" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>87</v>
@@ -1937,10 +1937,10 @@
         <v>32143</v>
       </c>
       <c r="G23" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H23" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>87</v>
@@ -1969,10 +1969,10 @@
         <v>32143</v>
       </c>
       <c r="G24" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H24" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>87</v>
@@ -2001,10 +2001,10 @@
         <v>32143</v>
       </c>
       <c r="G25" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H25" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>87</v>
@@ -2033,10 +2033,10 @@
         <v>32143</v>
       </c>
       <c r="G26" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H26" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>87</v>
@@ -2065,10 +2065,10 @@
         <v>32143</v>
       </c>
       <c r="G27" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H27" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>87</v>
@@ -2097,10 +2097,10 @@
         <v>32143</v>
       </c>
       <c r="G28" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H28" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>87</v>
@@ -2129,10 +2129,10 @@
         <v>32143</v>
       </c>
       <c r="G29" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H29" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>87</v>
@@ -2161,10 +2161,10 @@
         <v>32143</v>
       </c>
       <c r="G30" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H30" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>87</v>
@@ -2193,10 +2193,10 @@
         <v>32143</v>
       </c>
       <c r="G31" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H31" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>87</v>
@@ -2225,10 +2225,10 @@
         <v>32143</v>
       </c>
       <c r="G32" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H32" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>87</v>
@@ -2257,10 +2257,10 @@
         <v>32143</v>
       </c>
       <c r="G33" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H33" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>87</v>
@@ -2289,10 +2289,10 @@
         <v>32143</v>
       </c>
       <c r="G34" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H34" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>87</v>
@@ -2321,10 +2321,10 @@
         <v>32143</v>
       </c>
       <c r="G35" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H35" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>87</v>
@@ -2353,10 +2353,10 @@
         <v>32143</v>
       </c>
       <c r="G36" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H36" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>87</v>
@@ -2385,10 +2385,10 @@
         <v>32143</v>
       </c>
       <c r="G37" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H37" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>87</v>
@@ -2417,10 +2417,10 @@
         <v>32143</v>
       </c>
       <c r="G38" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H38" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>87</v>
@@ -2449,10 +2449,10 @@
         <v>32143</v>
       </c>
       <c r="G39" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H39" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>87</v>
@@ -2481,10 +2481,10 @@
         <v>32143</v>
       </c>
       <c r="G40" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H40" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>87</v>
@@ -2513,10 +2513,10 @@
         <v>32143</v>
       </c>
       <c r="G41" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H41" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>87</v>
@@ -2545,10 +2545,10 @@
         <v>32143</v>
       </c>
       <c r="G42" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H42" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>87</v>
@@ -2577,10 +2577,10 @@
         <v>32143</v>
       </c>
       <c r="G43" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H43" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>87</v>
@@ -2609,10 +2609,10 @@
         <v>32143</v>
       </c>
       <c r="G44" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H44" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>87</v>
@@ -2641,10 +2641,10 @@
         <v>32143</v>
       </c>
       <c r="G45" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H45" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>87</v>
@@ -2673,10 +2673,10 @@
         <v>32143</v>
       </c>
       <c r="G46" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H46" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>87</v>
@@ -2705,10 +2705,10 @@
         <v>32143</v>
       </c>
       <c r="G47" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H47" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>87</v>
@@ -2737,10 +2737,10 @@
         <v>32143</v>
       </c>
       <c r="G48" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H48" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>87</v>
@@ -2769,10 +2769,10 @@
         <v>32143</v>
       </c>
       <c r="G49" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H49" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>87</v>
@@ -2801,10 +2801,10 @@
         <v>32143</v>
       </c>
       <c r="G50" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H50" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>87</v>
@@ -2833,10 +2833,10 @@
         <v>32143</v>
       </c>
       <c r="G51" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H51" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>87</v>
@@ -2865,10 +2865,10 @@
         <v>32143</v>
       </c>
       <c r="G52" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H52" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>87</v>
@@ -2897,10 +2897,10 @@
         <v>32143</v>
       </c>
       <c r="G53" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H53" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>87</v>
@@ -2929,10 +2929,10 @@
         <v>32143</v>
       </c>
       <c r="G54" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H54" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>87</v>
@@ -2961,10 +2961,10 @@
         <v>32143</v>
       </c>
       <c r="G55" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H55" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>87</v>
@@ -2993,10 +2993,10 @@
         <v>32143</v>
       </c>
       <c r="G56" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H56" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>87</v>
@@ -3025,10 +3025,10 @@
         <v>32143</v>
       </c>
       <c r="G57" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H57" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>87</v>
@@ -3057,10 +3057,10 @@
         <v>32143</v>
       </c>
       <c r="G58" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H58" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>87</v>
@@ -3089,10 +3089,10 @@
         <v>32143</v>
       </c>
       <c r="G59" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H59" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>87</v>
@@ -3121,10 +3121,10 @@
         <v>32143</v>
       </c>
       <c r="G60" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H60" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>87</v>
@@ -3153,10 +3153,10 @@
         <v>32143</v>
       </c>
       <c r="G61" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H61" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>87</v>
@@ -3185,10 +3185,10 @@
         <v>32143</v>
       </c>
       <c r="G62" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H62" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>87</v>
@@ -3217,10 +3217,10 @@
         <v>32143</v>
       </c>
       <c r="G63" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H63" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>87</v>
@@ -3249,10 +3249,10 @@
         <v>32143</v>
       </c>
       <c r="G64" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H64" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>87</v>
@@ -3281,10 +3281,10 @@
         <v>32143</v>
       </c>
       <c r="G65" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H65" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>87</v>
@@ -3313,10 +3313,10 @@
         <v>32143</v>
       </c>
       <c r="G66" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H66" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>87</v>
@@ -3345,10 +3345,10 @@
         <v>32143</v>
       </c>
       <c r="G67" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H67" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>87</v>
@@ -3377,10 +3377,10 @@
         <v>32143</v>
       </c>
       <c r="G68" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H68" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>87</v>
@@ -3409,10 +3409,10 @@
         <v>32143</v>
       </c>
       <c r="G69" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H69" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>87</v>
@@ -3441,10 +3441,10 @@
         <v>32143</v>
       </c>
       <c r="G70" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H70" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>87</v>
@@ -3473,10 +3473,10 @@
         <v>32143</v>
       </c>
       <c r="G71" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H71" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>87</v>
@@ -3505,10 +3505,10 @@
         <v>32143</v>
       </c>
       <c r="G72" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H72" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>87</v>
@@ -3537,10 +3537,10 @@
         <v>32143</v>
       </c>
       <c r="G73" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H73" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>87</v>
@@ -3569,10 +3569,10 @@
         <v>32143</v>
       </c>
       <c r="G74" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H74" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>87</v>
@@ -3601,10 +3601,10 @@
         <v>32143</v>
       </c>
       <c r="G75" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H75" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>87</v>
@@ -3633,10 +3633,10 @@
         <v>32143</v>
       </c>
       <c r="G76" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H76" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>87</v>
@@ -3665,10 +3665,10 @@
         <v>32143</v>
       </c>
       <c r="G77" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H77" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>87</v>
@@ -3697,10 +3697,10 @@
         <v>32143</v>
       </c>
       <c r="G78" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H78" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>87</v>
@@ -3729,10 +3729,10 @@
         <v>32143</v>
       </c>
       <c r="G79" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H79" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>87</v>
@@ -3761,10 +3761,10 @@
         <v>32143</v>
       </c>
       <c r="G80" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H80" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>87</v>
@@ -3793,10 +3793,10 @@
         <v>32143</v>
       </c>
       <c r="G81" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H81" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>87</v>
@@ -3825,10 +3825,10 @@
         <v>32143</v>
       </c>
       <c r="G82" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H82" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I82" s="10" t="s">
         <v>87</v>
@@ -3857,10 +3857,10 @@
         <v>32143</v>
       </c>
       <c r="G83" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H83" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I83" s="10" t="s">
         <v>87</v>
@@ -3889,10 +3889,10 @@
         <v>32143</v>
       </c>
       <c r="G84" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H84" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I84" s="10" t="s">
         <v>87</v>
@@ -3921,10 +3921,10 @@
         <v>32143</v>
       </c>
       <c r="G85" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H85" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I85" s="10" t="s">
         <v>87</v>
@@ -3953,10 +3953,10 @@
         <v>32143</v>
       </c>
       <c r="G86" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H86" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I86" s="10" t="s">
         <v>87</v>
@@ -3985,10 +3985,10 @@
         <v>32143</v>
       </c>
       <c r="G87" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H87" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I87" s="10" t="s">
         <v>87</v>
@@ -4017,10 +4017,10 @@
         <v>32143</v>
       </c>
       <c r="G88" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H88" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I88" s="10" t="s">
         <v>87</v>
@@ -4049,10 +4049,10 @@
         <v>32143</v>
       </c>
       <c r="G89" s="9">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H89" s="10">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>87</v>
@@ -4165,7 +4165,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CA419"/>
+  <dimension ref="A1:CA422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -5854,238 +5854,238 @@
         <v>84</v>
       </c>
       <c r="B8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="D8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="E8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="F8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="G8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="H8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="I8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="J8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="K8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="L8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="M8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="N8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="O8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="P8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="Q8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="R8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="S8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="T8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="U8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="V8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="W8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="X8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="Y8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="Z8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AA8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AB8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AC8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AD8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AE8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AF8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AG8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AH8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AI8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AK8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AL8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AM8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AN8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AO8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AP8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AR8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AS8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AT8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AU8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AV8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AW8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AX8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AY8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="AZ8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BA8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BB8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BC8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BD8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BE8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BF8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BG8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BH8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BI8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BJ8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BK8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BL8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BM8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BN8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BO8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BP8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BQ8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BR8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BS8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BT8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BU8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BV8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BW8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BX8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BY8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="BZ8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="CA8" s="6">
-        <v>44562</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="9" spans="1:79" x14ac:dyDescent="0.2">
@@ -6093,238 +6093,238 @@
         <v>85</v>
       </c>
       <c r="B9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="J9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="N9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="O9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="P9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="R9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="S9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="T9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="U9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="V9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="W9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="X9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Y9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Z9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AA9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AB9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AC9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AD9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AE9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AF9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AG9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AH9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AI9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AJ9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AK9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AL9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AM9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AN9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AO9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AP9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AQ9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AR9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AS9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AT9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AU9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AV9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AW9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AX9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AY9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AZ9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BA9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BB9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BC9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BD9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BE9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BF9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BG9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BH9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BI9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BJ9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BK9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BL9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BM9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BN9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BO9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BP9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BQ9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BR9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BS9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BT9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BU9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BV9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BW9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BX9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BY9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="BZ9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="CA9" s="1">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:79" x14ac:dyDescent="0.2">
@@ -103041,10 +103041,10 @@
         <v>341</v>
       </c>
       <c r="BA414" s="8">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="BB414" s="8">
-        <v>11112</v>
+        <v>11111</v>
       </c>
       <c r="BC414" s="8">
         <v>530</v>
@@ -103059,7 +103059,7 @@
         <v>1502</v>
       </c>
       <c r="BG414" s="8">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="BH414" s="8">
         <v>1216</v>
@@ -103074,7 +103074,7 @@
         <v>353</v>
       </c>
       <c r="BL414" s="8">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="BM414" s="8">
         <v>192</v>
@@ -103098,7 +103098,7 @@
         <v>149</v>
       </c>
       <c r="BT414" s="8">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="BU414" s="8">
         <v>975</v>
@@ -103127,7 +103127,7 @@
         <v>44440</v>
       </c>
       <c r="B415" s="8">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C415" s="8">
         <v>6</v>
@@ -103145,7 +103145,7 @@
         <v>157</v>
       </c>
       <c r="H415" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I415" s="8">
         <v>49</v>
@@ -103169,7 +103169,7 @@
         <v>41</v>
       </c>
       <c r="P415" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q415" s="8">
         <v>0</v>
@@ -103199,13 +103199,13 @@
         <v>62</v>
       </c>
       <c r="Z415" s="8">
-        <v>2888</v>
+        <v>2903</v>
       </c>
       <c r="AA415" s="8">
         <v>63</v>
       </c>
       <c r="AB415" s="8">
-        <v>2782</v>
+        <v>2798</v>
       </c>
       <c r="AC415" s="8">
         <v>43</v>
@@ -103271,7 +103271,7 @@
         <v>429</v>
       </c>
       <c r="AX415" s="8">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AY415" s="8">
         <v>407</v>
@@ -103283,22 +103283,22 @@
         <v>970</v>
       </c>
       <c r="BB415" s="8">
-        <v>11209</v>
+        <v>11208</v>
       </c>
       <c r="BC415" s="8">
         <v>514</v>
       </c>
       <c r="BD415" s="8">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="BE415" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="BF415" s="8">
         <v>1423</v>
       </c>
       <c r="BG415" s="8">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="BH415" s="8">
         <v>1607</v>
@@ -103313,7 +103313,7 @@
         <v>681</v>
       </c>
       <c r="BL415" s="8">
-        <v>4514</v>
+        <v>4515</v>
       </c>
       <c r="BM415" s="8">
         <v>199</v>
@@ -103337,7 +103337,7 @@
         <v>160</v>
       </c>
       <c r="BT415" s="8">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="BU415" s="8">
         <v>887</v>
@@ -103358,7 +103358,7 @@
         <v>485</v>
       </c>
       <c r="CA415" s="8">
-        <v>28159</v>
+        <v>28175</v>
       </c>
     </row>
     <row r="416" spans="1:79" x14ac:dyDescent="0.2">
@@ -103438,13 +103438,13 @@
         <v>53</v>
       </c>
       <c r="Z416" s="8">
-        <v>3510</v>
+        <v>3552</v>
       </c>
       <c r="AA416" s="8">
         <v>1</v>
       </c>
       <c r="AB416" s="8">
-        <v>3467</v>
+        <v>3509</v>
       </c>
       <c r="AC416" s="8">
         <v>42</v>
@@ -103465,7 +103465,7 @@
         <v>3119</v>
       </c>
       <c r="AI416" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AJ416" s="8">
         <v>99</v>
@@ -103489,7 +103489,7 @@
         <v>224</v>
       </c>
       <c r="AQ416" s="8">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AR416" s="8">
         <v>3095</v>
@@ -103522,19 +103522,19 @@
         <v>864</v>
       </c>
       <c r="BB416" s="8">
-        <v>10815</v>
+        <v>10814</v>
       </c>
       <c r="BC416" s="8">
         <v>353</v>
       </c>
       <c r="BD416" s="8">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="BE416" s="8">
         <v>70</v>
       </c>
       <c r="BF416" s="8">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="BG416" s="8">
         <v>1106</v>
@@ -103546,13 +103546,13 @@
         <v>1510</v>
       </c>
       <c r="BJ416" s="8">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="BK416" s="8">
         <v>843</v>
       </c>
       <c r="BL416" s="8">
-        <v>4343</v>
+        <v>4337</v>
       </c>
       <c r="BM416" s="8">
         <v>175</v>
@@ -103570,7 +103570,7 @@
         <v>171</v>
       </c>
       <c r="BR416" s="8">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="BS416" s="8">
         <v>191</v>
@@ -103597,7 +103597,7 @@
         <v>478</v>
       </c>
       <c r="CA416" s="8">
-        <v>27874</v>
+        <v>27910</v>
       </c>
     </row>
     <row r="417" spans="1:79" x14ac:dyDescent="0.2">
@@ -103638,7 +103638,7 @@
         <v>329</v>
       </c>
       <c r="M417" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N417" s="8">
         <v>259</v>
@@ -103677,13 +103677,13 @@
         <v>68</v>
       </c>
       <c r="Z417" s="8">
-        <v>3645</v>
+        <v>3636</v>
       </c>
       <c r="AA417" s="8">
         <v>26</v>
       </c>
       <c r="AB417" s="8">
-        <v>3571</v>
+        <v>3562</v>
       </c>
       <c r="AC417" s="8">
         <v>48</v>
@@ -103701,10 +103701,10 @@
         <v>5</v>
       </c>
       <c r="AH417" s="8">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="AI417" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AJ417" s="8">
         <v>92</v>
@@ -103719,7 +103719,7 @@
         <v>323</v>
       </c>
       <c r="AN417" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AO417" s="8">
         <v>252</v>
@@ -103728,7 +103728,7 @@
         <v>252</v>
       </c>
       <c r="AQ417" s="8">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AR417" s="8">
         <v>3784</v>
@@ -103758,10 +103758,10 @@
         <v>423</v>
       </c>
       <c r="BA417" s="8">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="BB417" s="8">
-        <v>12266</v>
+        <v>12578</v>
       </c>
       <c r="BC417" s="8">
         <v>468</v>
@@ -103773,22 +103773,22 @@
         <v>86</v>
       </c>
       <c r="BF417" s="8">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="BG417" s="8">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="BH417" s="8">
         <v>2137</v>
       </c>
       <c r="BI417" s="8">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="BJ417" s="8">
         <v>3386</v>
       </c>
       <c r="BK417" s="8">
-        <v>296</v>
+        <v>610</v>
       </c>
       <c r="BL417" s="8">
         <v>4799</v>
@@ -103797,7 +103797,7 @@
         <v>208</v>
       </c>
       <c r="BN417" s="8">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="BO417" s="8">
         <v>176</v>
@@ -103836,7 +103836,7 @@
         <v>724</v>
       </c>
       <c r="CA417" s="8">
-        <v>31896</v>
+        <v>32199</v>
       </c>
     </row>
     <row r="418" spans="1:79" x14ac:dyDescent="0.2">
@@ -103916,13 +103916,13 @@
         <v>71</v>
       </c>
       <c r="Z418" s="8">
-        <v>3615</v>
+        <v>3600</v>
       </c>
       <c r="AA418" s="8">
         <v>14</v>
       </c>
       <c r="AB418" s="8">
-        <v>3596</v>
+        <v>3581</v>
       </c>
       <c r="AC418" s="8">
         <v>5</v>
@@ -103940,13 +103940,13 @@
         <v>6</v>
       </c>
       <c r="AH418" s="8">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="AI418" s="8">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AJ418" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK418" s="8">
         <v>100</v>
@@ -103958,7 +103958,7 @@
         <v>306</v>
       </c>
       <c r="AN418" s="8">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AO418" s="8">
         <v>271</v>
@@ -103967,7 +103967,7 @@
         <v>230</v>
       </c>
       <c r="AQ418" s="8">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="AR418" s="8">
         <v>3616</v>
@@ -104000,10 +104000,10 @@
         <v>1027</v>
       </c>
       <c r="BB418" s="8">
-        <v>13104</v>
+        <v>13098</v>
       </c>
       <c r="BC418" s="8">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="BD418" s="8">
         <v>1143</v>
@@ -104021,25 +104021,25 @@
         <v>1944</v>
       </c>
       <c r="BI418" s="8">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="BJ418" s="8">
         <v>4226</v>
       </c>
       <c r="BK418" s="8">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="BL418" s="8">
-        <v>4593</v>
+        <v>4592</v>
       </c>
       <c r="BM418" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BN418" s="8">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="BO418" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BP418" s="8">
         <v>893</v>
@@ -104048,10 +104048,10 @@
         <v>209</v>
       </c>
       <c r="BR418" s="8">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BS418" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BT418" s="8">
         <v>1580</v>
@@ -104075,7 +104075,7 @@
         <v>768</v>
       </c>
       <c r="CA418" s="8">
-        <v>32382</v>
+        <v>32361</v>
       </c>
     </row>
     <row r="419" spans="1:79" x14ac:dyDescent="0.2">
@@ -104083,7 +104083,7 @@
         <v>44562</v>
       </c>
       <c r="B419" s="8">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C419" s="8">
         <v>20</v>
@@ -104104,22 +104104,22 @@
         <v>249</v>
       </c>
       <c r="I419" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J419" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K419" s="8">
         <v>106</v>
       </c>
       <c r="L419" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M419" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N419" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O419" s="8">
         <v>65</v>
@@ -104155,16 +104155,16 @@
         <v>61</v>
       </c>
       <c r="Z419" s="8">
-        <v>3463</v>
+        <v>3535</v>
       </c>
       <c r="AA419" s="8">
         <v>43</v>
       </c>
       <c r="AB419" s="8">
-        <v>3373</v>
+        <v>3445</v>
       </c>
       <c r="AC419" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AD419" s="8">
         <v>47</v>
@@ -104179,10 +104179,10 @@
         <v>5</v>
       </c>
       <c r="AH419" s="8">
-        <v>4247</v>
+        <v>4230</v>
       </c>
       <c r="AI419" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AJ419" s="8">
         <v>307</v>
@@ -104191,25 +104191,25 @@
         <v>100</v>
       </c>
       <c r="AL419" s="8">
-        <v>1505</v>
+        <v>1490</v>
       </c>
       <c r="AM419" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AN419" s="8">
         <v>401</v>
       </c>
       <c r="AO419" s="8">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AP419" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AQ419" s="8">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="AR419" s="8">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="AS419" s="8">
         <v>15</v>
@@ -104221,7 +104221,7 @@
         <v>175</v>
       </c>
       <c r="AV419" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AW419" s="8">
         <v>402</v>
@@ -104236,22 +104236,22 @@
         <v>424</v>
       </c>
       <c r="BA419" s="8">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="BB419" s="8">
-        <v>10790</v>
+        <v>10768</v>
       </c>
       <c r="BC419" s="8">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="BD419" s="8">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="BE419" s="8">
         <v>84</v>
       </c>
       <c r="BF419" s="8">
-        <v>1466</v>
+        <v>1455</v>
       </c>
       <c r="BG419" s="8">
         <v>1217</v>
@@ -104260,28 +104260,28 @@
         <v>1437</v>
       </c>
       <c r="BI419" s="8">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="BJ419" s="8">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="BK419" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="BL419" s="8">
-        <v>4136</v>
+        <v>4133</v>
       </c>
       <c r="BM419" s="8">
         <v>175</v>
       </c>
       <c r="BN419" s="8">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="BO419" s="8">
         <v>146</v>
       </c>
       <c r="BP419" s="8">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="BQ419" s="8">
         <v>207</v>
@@ -104293,7 +104293,7 @@
         <v>176</v>
       </c>
       <c r="BT419" s="8">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="BU419" s="8">
         <v>1243</v>
@@ -104314,7 +104314,724 @@
         <v>723</v>
       </c>
       <c r="CA419" s="8">
-        <v>29312</v>
+        <v>29341</v>
+      </c>
+    </row>
+    <row r="420" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="A420" s="9">
+        <v>44593</v>
+      </c>
+      <c r="B420" s="8">
+        <v>1415</v>
+      </c>
+      <c r="C420" s="8">
+        <v>19</v>
+      </c>
+      <c r="D420" s="8">
+        <v>84</v>
+      </c>
+      <c r="E420" s="8">
+        <v>117</v>
+      </c>
+      <c r="F420" s="8">
+        <v>180</v>
+      </c>
+      <c r="G420" s="8">
+        <v>133</v>
+      </c>
+      <c r="H420" s="8">
+        <v>242</v>
+      </c>
+      <c r="I420" s="8">
+        <v>41</v>
+      </c>
+      <c r="J420" s="8">
+        <v>170</v>
+      </c>
+      <c r="K420" s="8">
+        <v>106</v>
+      </c>
+      <c r="L420" s="8">
+        <v>323</v>
+      </c>
+      <c r="M420" s="8">
+        <v>261</v>
+      </c>
+      <c r="N420" s="8">
+        <v>192</v>
+      </c>
+      <c r="O420" s="8">
+        <v>69</v>
+      </c>
+      <c r="P420" s="8">
+        <v>296</v>
+      </c>
+      <c r="Q420" s="8">
+        <v>0</v>
+      </c>
+      <c r="R420" s="8">
+        <v>12</v>
+      </c>
+      <c r="S420" s="8">
+        <v>8</v>
+      </c>
+      <c r="T420" s="8">
+        <v>124</v>
+      </c>
+      <c r="U420" s="8">
+        <v>23</v>
+      </c>
+      <c r="V420" s="8">
+        <v>13</v>
+      </c>
+      <c r="W420" s="8">
+        <v>19</v>
+      </c>
+      <c r="X420" s="8">
+        <v>32</v>
+      </c>
+      <c r="Y420" s="8">
+        <v>66</v>
+      </c>
+      <c r="Z420" s="8">
+        <v>3749</v>
+      </c>
+      <c r="AA420" s="8">
+        <v>3</v>
+      </c>
+      <c r="AB420" s="8">
+        <v>3744</v>
+      </c>
+      <c r="AC420" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD420" s="8">
+        <v>85</v>
+      </c>
+      <c r="AE420" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF420" s="8">
+        <v>73</v>
+      </c>
+      <c r="AG420" s="8">
+        <v>5</v>
+      </c>
+      <c r="AH420" s="8">
+        <v>5069</v>
+      </c>
+      <c r="AI420" s="8">
+        <v>360</v>
+      </c>
+      <c r="AJ420" s="8">
+        <v>249</v>
+      </c>
+      <c r="AK420" s="8">
+        <v>90</v>
+      </c>
+      <c r="AL420" s="8">
+        <v>1768</v>
+      </c>
+      <c r="AM420" s="8">
+        <v>305</v>
+      </c>
+      <c r="AN420" s="8">
+        <v>499</v>
+      </c>
+      <c r="AO420" s="8">
+        <v>266</v>
+      </c>
+      <c r="AP420" s="8">
+        <v>250</v>
+      </c>
+      <c r="AQ420" s="8">
+        <v>1283</v>
+      </c>
+      <c r="AR420" s="8">
+        <v>3615</v>
+      </c>
+      <c r="AS420" s="8">
+        <v>22</v>
+      </c>
+      <c r="AT420" s="8">
+        <v>343</v>
+      </c>
+      <c r="AU420" s="8">
+        <v>184</v>
+      </c>
+      <c r="AV420" s="8">
+        <v>286</v>
+      </c>
+      <c r="AW420" s="8">
+        <v>497</v>
+      </c>
+      <c r="AX420" s="8">
+        <v>390</v>
+      </c>
+      <c r="AY420" s="8">
+        <v>461</v>
+      </c>
+      <c r="AZ420" s="8">
+        <v>375</v>
+      </c>
+      <c r="BA420" s="8">
+        <v>1058</v>
+      </c>
+      <c r="BB420" s="8">
+        <v>11656</v>
+      </c>
+      <c r="BC420" s="8">
+        <v>415</v>
+      </c>
+      <c r="BD420" s="8">
+        <v>1113</v>
+      </c>
+      <c r="BE420" s="8">
+        <v>78</v>
+      </c>
+      <c r="BF420" s="8">
+        <v>1425</v>
+      </c>
+      <c r="BG420" s="8">
+        <v>954</v>
+      </c>
+      <c r="BH420" s="8">
+        <v>1397</v>
+      </c>
+      <c r="BI420" s="8">
+        <v>1764</v>
+      </c>
+      <c r="BJ420" s="8">
+        <v>4266</v>
+      </c>
+      <c r="BK420" s="8">
+        <v>245</v>
+      </c>
+      <c r="BL420" s="8">
+        <v>4559</v>
+      </c>
+      <c r="BM420" s="8">
+        <v>194</v>
+      </c>
+      <c r="BN420" s="8">
+        <v>569</v>
+      </c>
+      <c r="BO420" s="8">
+        <v>164</v>
+      </c>
+      <c r="BP420" s="8">
+        <v>1232</v>
+      </c>
+      <c r="BQ420" s="8">
+        <v>246</v>
+      </c>
+      <c r="BR420" s="8">
+        <v>639</v>
+      </c>
+      <c r="BS420" s="8">
+        <v>166</v>
+      </c>
+      <c r="BT420" s="8">
+        <v>1349</v>
+      </c>
+      <c r="BU420" s="8">
+        <v>953</v>
+      </c>
+      <c r="BV420" s="8">
+        <v>0</v>
+      </c>
+      <c r="BW420" s="8">
+        <v>3</v>
+      </c>
+      <c r="BX420" s="8">
+        <v>0</v>
+      </c>
+      <c r="BY420" s="8">
+        <v>582</v>
+      </c>
+      <c r="BZ420" s="8">
+        <v>368</v>
+      </c>
+      <c r="CA420" s="8">
+        <v>31659</v>
+      </c>
+    </row>
+    <row r="421" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="A421" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B421" s="8">
+        <v>1613</v>
+      </c>
+      <c r="C421" s="8">
+        <v>22</v>
+      </c>
+      <c r="D421" s="8">
+        <v>97</v>
+      </c>
+      <c r="E421" s="8">
+        <v>147</v>
+      </c>
+      <c r="F421" s="8">
+        <v>189</v>
+      </c>
+      <c r="G421" s="8">
+        <v>171</v>
+      </c>
+      <c r="H421" s="8">
+        <v>280</v>
+      </c>
+      <c r="I421" s="8">
+        <v>46</v>
+      </c>
+      <c r="J421" s="8">
+        <v>203</v>
+      </c>
+      <c r="K421" s="8">
+        <v>115</v>
+      </c>
+      <c r="L421" s="8">
+        <v>344</v>
+      </c>
+      <c r="M421" s="8">
+        <v>306</v>
+      </c>
+      <c r="N421" s="8">
+        <v>254</v>
+      </c>
+      <c r="O421" s="8">
+        <v>52</v>
+      </c>
+      <c r="P421" s="8">
+        <v>410</v>
+      </c>
+      <c r="Q421" s="8">
+        <v>0</v>
+      </c>
+      <c r="R421" s="8">
+        <v>13</v>
+      </c>
+      <c r="S421" s="8">
+        <v>14</v>
+      </c>
+      <c r="T421" s="8">
+        <v>153</v>
+      </c>
+      <c r="U421" s="8">
+        <v>37</v>
+      </c>
+      <c r="V421" s="8">
+        <v>10</v>
+      </c>
+      <c r="W421" s="8">
+        <v>67</v>
+      </c>
+      <c r="X421" s="8">
+        <v>40</v>
+      </c>
+      <c r="Y421" s="8">
+        <v>76</v>
+      </c>
+      <c r="Z421" s="8">
+        <v>5163</v>
+      </c>
+      <c r="AA421" s="8">
+        <v>31</v>
+      </c>
+      <c r="AB421" s="8">
+        <v>5075</v>
+      </c>
+      <c r="AC421" s="8">
+        <v>57</v>
+      </c>
+      <c r="AD421" s="8">
+        <v>90</v>
+      </c>
+      <c r="AE421" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF421" s="8">
+        <v>73</v>
+      </c>
+      <c r="AG421" s="8">
+        <v>7</v>
+      </c>
+      <c r="AH421" s="8">
+        <v>5101</v>
+      </c>
+      <c r="AI421" s="8">
+        <v>359</v>
+      </c>
+      <c r="AJ421" s="8">
+        <v>245</v>
+      </c>
+      <c r="AK421" s="8">
+        <v>125</v>
+      </c>
+      <c r="AL421" s="8">
+        <v>1821</v>
+      </c>
+      <c r="AM421" s="8">
+        <v>371</v>
+      </c>
+      <c r="AN421" s="8">
+        <v>620</v>
+      </c>
+      <c r="AO421" s="8">
+        <v>304</v>
+      </c>
+      <c r="AP421" s="8">
+        <v>244</v>
+      </c>
+      <c r="AQ421" s="8">
+        <v>1012</v>
+      </c>
+      <c r="AR421" s="8">
+        <v>3729</v>
+      </c>
+      <c r="AS421" s="8">
+        <v>17</v>
+      </c>
+      <c r="AT421" s="8">
+        <v>426</v>
+      </c>
+      <c r="AU421" s="8">
+        <v>160</v>
+      </c>
+      <c r="AV421" s="8">
+        <v>318</v>
+      </c>
+      <c r="AW421" s="8">
+        <v>468</v>
+      </c>
+      <c r="AX421" s="8">
+        <v>391</v>
+      </c>
+      <c r="AY421" s="8">
+        <v>482</v>
+      </c>
+      <c r="AZ421" s="8">
+        <v>518</v>
+      </c>
+      <c r="BA421" s="8">
+        <v>949</v>
+      </c>
+      <c r="BB421" s="8">
+        <v>13378</v>
+      </c>
+      <c r="BC421" s="8">
+        <v>589</v>
+      </c>
+      <c r="BD421" s="8">
+        <v>1304</v>
+      </c>
+      <c r="BE421" s="8">
+        <v>86</v>
+      </c>
+      <c r="BF421" s="8">
+        <v>1581</v>
+      </c>
+      <c r="BG421" s="8">
+        <v>1246</v>
+      </c>
+      <c r="BH421" s="8">
+        <v>1614</v>
+      </c>
+      <c r="BI421" s="8">
+        <v>1882</v>
+      </c>
+      <c r="BJ421" s="8">
+        <v>4324</v>
+      </c>
+      <c r="BK421" s="8">
+        <v>751</v>
+      </c>
+      <c r="BL421" s="8">
+        <v>4346</v>
+      </c>
+      <c r="BM421" s="8">
+        <v>142</v>
+      </c>
+      <c r="BN421" s="8">
+        <v>457</v>
+      </c>
+      <c r="BO421" s="8">
+        <v>140</v>
+      </c>
+      <c r="BP421" s="8">
+        <v>1041</v>
+      </c>
+      <c r="BQ421" s="8">
+        <v>230</v>
+      </c>
+      <c r="BR421" s="8">
+        <v>741</v>
+      </c>
+      <c r="BS421" s="8">
+        <v>195</v>
+      </c>
+      <c r="BT421" s="8">
+        <v>1401</v>
+      </c>
+      <c r="BU421" s="8">
+        <v>1052</v>
+      </c>
+      <c r="BV421" s="8">
+        <v>0</v>
+      </c>
+      <c r="BW421" s="8">
+        <v>10</v>
+      </c>
+      <c r="BX421" s="8">
+        <v>1</v>
+      </c>
+      <c r="BY421" s="8">
+        <v>603</v>
+      </c>
+      <c r="BZ421" s="8">
+        <v>438</v>
+      </c>
+      <c r="CA421" s="8">
+        <v>35189</v>
+      </c>
+    </row>
+    <row r="422" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="A422" s="9">
+        <v>44652</v>
+      </c>
+      <c r="B422" s="8">
+        <v>1439</v>
+      </c>
+      <c r="C422" s="8">
+        <v>10</v>
+      </c>
+      <c r="D422" s="8">
+        <v>86</v>
+      </c>
+      <c r="E422" s="8">
+        <v>127</v>
+      </c>
+      <c r="F422" s="8">
+        <v>174</v>
+      </c>
+      <c r="G422" s="8">
+        <v>144</v>
+      </c>
+      <c r="H422" s="8">
+        <v>209</v>
+      </c>
+      <c r="I422" s="8">
+        <v>43</v>
+      </c>
+      <c r="J422" s="8">
+        <v>191</v>
+      </c>
+      <c r="K422" s="8">
+        <v>139</v>
+      </c>
+      <c r="L422" s="8">
+        <v>317</v>
+      </c>
+      <c r="M422" s="8">
+        <v>258</v>
+      </c>
+      <c r="N422" s="8">
+        <v>208</v>
+      </c>
+      <c r="O422" s="8">
+        <v>50</v>
+      </c>
+      <c r="P422" s="8">
+        <v>310</v>
+      </c>
+      <c r="Q422" s="8">
+        <v>0</v>
+      </c>
+      <c r="R422" s="8">
+        <v>10</v>
+      </c>
+      <c r="S422" s="8">
+        <v>12</v>
+      </c>
+      <c r="T422" s="8">
+        <v>118</v>
+      </c>
+      <c r="U422" s="8">
+        <v>28</v>
+      </c>
+      <c r="V422" s="8">
+        <v>9</v>
+      </c>
+      <c r="W422" s="8">
+        <v>21</v>
+      </c>
+      <c r="X422" s="8">
+        <v>38</v>
+      </c>
+      <c r="Y422" s="8">
+        <v>73</v>
+      </c>
+      <c r="Z422" s="8">
+        <v>4800</v>
+      </c>
+      <c r="AA422" s="8">
+        <v>64</v>
+      </c>
+      <c r="AB422" s="8">
+        <v>4730</v>
+      </c>
+      <c r="AC422" s="8">
+        <v>6</v>
+      </c>
+      <c r="AD422" s="8">
+        <v>61</v>
+      </c>
+      <c r="AE422" s="8">
+        <v>5</v>
+      </c>
+      <c r="AF422" s="8">
+        <v>49</v>
+      </c>
+      <c r="AG422" s="8">
+        <v>7</v>
+      </c>
+      <c r="AH422" s="8">
+        <v>4266</v>
+      </c>
+      <c r="AI422" s="8">
+        <v>271</v>
+      </c>
+      <c r="AJ422" s="8">
+        <v>229</v>
+      </c>
+      <c r="AK422" s="8">
+        <v>85</v>
+      </c>
+      <c r="AL422" s="8">
+        <v>1670</v>
+      </c>
+      <c r="AM422" s="8">
+        <v>327</v>
+      </c>
+      <c r="AN422" s="8">
+        <v>616</v>
+      </c>
+      <c r="AO422" s="8">
+        <v>236</v>
+      </c>
+      <c r="AP422" s="8">
+        <v>220</v>
+      </c>
+      <c r="AQ422" s="8">
+        <v>612</v>
+      </c>
+      <c r="AR422" s="8">
+        <v>3158</v>
+      </c>
+      <c r="AS422" s="8">
+        <v>12</v>
+      </c>
+      <c r="AT422" s="8">
+        <v>376</v>
+      </c>
+      <c r="AU422" s="8">
+        <v>142</v>
+      </c>
+      <c r="AV422" s="8">
+        <v>248</v>
+      </c>
+      <c r="AW422" s="8">
+        <v>385</v>
+      </c>
+      <c r="AX422" s="8">
+        <v>337</v>
+      </c>
+      <c r="AY422" s="8">
+        <v>404</v>
+      </c>
+      <c r="AZ422" s="8">
+        <v>374</v>
+      </c>
+      <c r="BA422" s="8">
+        <v>878</v>
+      </c>
+      <c r="BB422" s="8">
+        <v>11386</v>
+      </c>
+      <c r="BC422" s="8">
+        <v>484</v>
+      </c>
+      <c r="BD422" s="8">
+        <v>1109</v>
+      </c>
+      <c r="BE422" s="8">
+        <v>70</v>
+      </c>
+      <c r="BF422" s="8">
+        <v>1460</v>
+      </c>
+      <c r="BG422" s="8">
+        <v>1224</v>
+      </c>
+      <c r="BH422" s="8">
+        <v>1471</v>
+      </c>
+      <c r="BI422" s="8">
+        <v>1731</v>
+      </c>
+      <c r="BJ422" s="8">
+        <v>3562</v>
+      </c>
+      <c r="BK422" s="8">
+        <v>276</v>
+      </c>
+      <c r="BL422" s="8">
+        <v>3998</v>
+      </c>
+      <c r="BM422" s="8">
+        <v>145</v>
+      </c>
+      <c r="BN422" s="8">
+        <v>437</v>
+      </c>
+      <c r="BO422" s="8">
+        <v>130</v>
+      </c>
+      <c r="BP422" s="8">
+        <v>875</v>
+      </c>
+      <c r="BQ422" s="8">
+        <v>190</v>
+      </c>
+      <c r="BR422" s="8">
+        <v>718</v>
+      </c>
+      <c r="BS422" s="8">
+        <v>177</v>
+      </c>
+      <c r="BT422" s="8">
+        <v>1326</v>
+      </c>
+      <c r="BU422" s="8">
+        <v>1018</v>
+      </c>
+      <c r="BV422" s="8">
+        <v>0</v>
+      </c>
+      <c r="BW422" s="8">
+        <v>3</v>
+      </c>
+      <c r="BX422" s="8">
+        <v>3</v>
+      </c>
+      <c r="BY422" s="8">
+        <v>672</v>
+      </c>
+      <c r="BZ422" s="8">
+        <v>340</v>
+      </c>
+      <c r="CA422" s="8">
+        <v>30693</v>
       </c>
     </row>
   </sheetData>
